--- a/public/relatorio_alimentos.xlsx
+++ b/public/relatorio_alimentos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -40,19 +40,85 @@
     <t>Validade</t>
   </si>
   <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>20-03-2025</t>
+  </si>
+  <si>
+    <t>Fardo</t>
+  </si>
+  <si>
+    <t>3832.00</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>20-03-2026</t>
+  </si>
+  <si>
     <t>Feijão Teste</t>
   </si>
   <si>
-    <t>01-01-2025</t>
-  </si>
-  <si>
-    <t>REF-FEIJ-01</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>31-12-2025</t>
+    <t>04-01-2025</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>01-01-2026</t>
+  </si>
+  <si>
+    <t>Macarrão</t>
+  </si>
+  <si>
+    <t>15-03-2025</t>
+  </si>
+  <si>
+    <t>Pacotes</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>15-03-2026</t>
+  </si>
+  <si>
+    <t>Açúcar</t>
+  </si>
+  <si>
+    <t>28-02-2025</t>
+  </si>
+  <si>
+    <t>Kilos</t>
+  </si>
+  <si>
+    <t>1304.00</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>28-02-2026</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>10-01-2025</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>10-01-2026</t>
   </si>
 </sst>
 </file>
@@ -429,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -463,13 +529,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4000</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -478,13 +544,132 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>95.8</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>65.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/public/relatorio_alimentos.xlsx
+++ b/public/relatorio_alimentos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,24 @@
     <t>Validade</t>
   </si>
   <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>01-04-2025</t>
+  </si>
+  <si>
+    <t>Kilos</t>
+  </si>
+  <si>
+    <t>6025.00</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>01-04-2026</t>
+  </si>
+  <si>
     <t>Feijão</t>
   </si>
   <si>
@@ -95,9 +113,6 @@
   </si>
   <si>
     <t>28-02-2025</t>
-  </si>
-  <si>
-    <t>Kilos</t>
   </si>
   <si>
     <t>1304.00</t>
@@ -495,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -529,13 +544,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -544,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>95.8</v>
+        <v>120.5</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -558,13 +573,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -573,7 +588,7 @@
         <v>17</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>95.8</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -587,13 +602,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -602,42 +617,42 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>65.2</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
@@ -645,31 +660,60 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>65.2</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
